--- a/templates/ctl_permit_template.xlsx
+++ b/templates/ctl_permit_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alekkariniemi/Documents/GitHub/butte-ctl-permit/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C06FB744-2849-3446-A7B5-B4FE70097BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8CA438C5-0CC4-6042-BB59-B0A6B2311ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAGE 1 OF" sheetId="39" r:id="rId1"/>
@@ -1151,25 +1151,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1180,28 +1192,16 @@
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2031,7 +2031,7 @@
       <pane xSplit="8" ySplit="16" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
+      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2062,25 +2062,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -2098,48 +2098,48 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
     </row>
     <row r="7" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" s="25"/>
@@ -2153,8 +2153,8 @@
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -2162,29 +2162,29 @@
       <c r="K9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="Q9" s="58" t="s">
+      <c r="M9" s="61"/>
+      <c r="Q9" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="78"/>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -2192,13 +2192,13 @@
       <c r="K10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="Q10" s="58" t="s">
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="Q10" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
       <c r="T10" s="53" t="s">
         <v>18</v>
       </c>
@@ -2211,13 +2211,13 @@
     </row>
     <row r="11" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -2225,13 +2225,13 @@
       <c r="K11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="Q11" s="58" t="s">
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="Q11" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
       <c r="T11" s="53" t="s">
         <v>18</v>
       </c>
@@ -2244,13 +2244,13 @@
     </row>
     <row r="12" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -2258,13 +2258,13 @@
       <c r="K12" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="Q12" s="58" t="s">
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
+      <c r="Q12" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
       <c r="T12" s="53" t="s">
         <v>18</v>
       </c>
@@ -2277,13 +2277,13 @@
     </row>
     <row r="13" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="80"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="5"/>
@@ -2291,13 +2291,13 @@
       <c r="K13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
-      <c r="Q13" s="58" t="s">
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
+      <c r="Q13" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
       <c r="T13" s="53" t="s">
         <v>18</v>
       </c>
@@ -2310,13 +2310,13 @@
     </row>
     <row r="14" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -2324,8 +2324,8 @@
       <c r="K14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B15" s="26"/>
@@ -2341,35 +2341,35 @@
     </row>
     <row r="16" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
     </row>
     <row r="17" spans="1:28" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
@@ -2478,7 +2478,7 @@
         <v>18</v>
       </c>
       <c r="N18" s="10"/>
-      <c r="O18" s="12"/>
+      <c r="O18" s="11"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="16"/>
@@ -2510,7 +2510,7 @@
       <c r="L19" s="47"/>
       <c r="M19" s="48"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="12"/>
+      <c r="O19" s="11"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="10"/>
@@ -2542,7 +2542,7 @@
       <c r="L20" s="47"/>
       <c r="M20" s="48"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
+      <c r="O20" s="11"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="10"/>
@@ -2574,7 +2574,7 @@
       <c r="L21" s="47"/>
       <c r="M21" s="48"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="12"/>
+      <c r="O21" s="11"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="10"/>
@@ -2606,7 +2606,7 @@
       <c r="L22" s="47"/>
       <c r="M22" s="48"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="12"/>
+      <c r="O22" s="11"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="10"/>
@@ -2637,7 +2637,7 @@
       <c r="L23" s="47"/>
       <c r="M23" s="48"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="12"/>
+      <c r="O23" s="11"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="10"/>
@@ -2669,7 +2669,7 @@
       <c r="L24" s="47"/>
       <c r="M24" s="48"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="12"/>
+      <c r="O24" s="11"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="13"/>
       <c r="R24" s="10"/>
@@ -2701,7 +2701,7 @@
       <c r="L25" s="47"/>
       <c r="M25" s="48"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="12"/>
+      <c r="O25" s="11"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="10"/>
@@ -2733,7 +2733,7 @@
       <c r="L26" s="47"/>
       <c r="M26" s="48"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="12"/>
+      <c r="O26" s="11"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="10"/>
@@ -2765,7 +2765,7 @@
       <c r="L27" s="47"/>
       <c r="M27" s="48"/>
       <c r="N27" s="10"/>
-      <c r="O27" s="12"/>
+      <c r="O27" s="11"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="10"/>
@@ -2797,7 +2797,7 @@
       <c r="L28" s="47"/>
       <c r="M28" s="48"/>
       <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
+      <c r="O28" s="11"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="13"/>
       <c r="R28" s="10"/>
@@ -2829,7 +2829,7 @@
       <c r="L29" s="47"/>
       <c r="M29" s="48"/>
       <c r="N29" s="10"/>
-      <c r="O29" s="12"/>
+      <c r="O29" s="11"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="10"/>
@@ -2861,7 +2861,7 @@
       <c r="L30" s="47"/>
       <c r="M30" s="48"/>
       <c r="N30" s="10"/>
-      <c r="O30" s="12"/>
+      <c r="O30" s="11"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="10"/>
@@ -2893,7 +2893,7 @@
       <c r="L31" s="47"/>
       <c r="M31" s="48"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="12"/>
+      <c r="O31" s="11"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="10"/>
@@ -2925,7 +2925,7 @@
       <c r="L32" s="47"/>
       <c r="M32" s="48"/>
       <c r="N32" s="10"/>
-      <c r="O32" s="12"/>
+      <c r="O32" s="11"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="13"/>
       <c r="R32" s="10"/>
@@ -2942,35 +2942,35 @@
     </row>
     <row r="33" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="76"/>
-      <c r="U33" s="76"/>
-      <c r="V33" s="76"/>
-      <c r="W33" s="76"/>
-      <c r="X33" s="76"/>
-      <c r="Y33" s="76"/>
-      <c r="Z33" s="76"/>
-      <c r="AA33" s="76"/>
-      <c r="AB33" s="76"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
     </row>
     <row r="34" spans="1:28" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
@@ -3034,17 +3034,17 @@
       <c r="S34" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="T34" s="63" t="s">
+      <c r="T34" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="63"/>
-      <c r="Z34" s="63"/>
-      <c r="AA34" s="63"/>
-      <c r="AB34" s="63"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
     </row>
     <row r="35" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
@@ -3089,15 +3089,15 @@
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="73"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="57"/>
     </row>
     <row r="36" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
@@ -3142,15 +3142,15 @@
       <c r="Q36" s="15"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="72"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="73"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="57"/>
     </row>
     <row r="37" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
@@ -3195,15 +3195,15 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="72"/>
-      <c r="Y37" s="72"/>
-      <c r="Z37" s="72"/>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="73"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="57"/>
     </row>
     <row r="38" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
@@ -3248,15 +3248,15 @@
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="73"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="57"/>
     </row>
     <row r="39" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
@@ -3301,15 +3301,15 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="72"/>
-      <c r="AA39" s="72"/>
-      <c r="AB39" s="73"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="57"/>
     </row>
     <row r="40" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
@@ -3354,15 +3354,15 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-      <c r="AA40" s="72"/>
-      <c r="AB40" s="73"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
+      <c r="AA40" s="56"/>
+      <c r="AB40" s="57"/>
     </row>
     <row r="41" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
@@ -3407,15 +3407,15 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
-      <c r="X41" s="72"/>
-      <c r="Y41" s="72"/>
-      <c r="Z41" s="72"/>
-      <c r="AA41" s="72"/>
-      <c r="AB41" s="73"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="56"/>
+      <c r="Z41" s="56"/>
+      <c r="AA41" s="56"/>
+      <c r="AB41" s="57"/>
     </row>
     <row r="42" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
@@ -3460,15 +3460,15 @@
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="72"/>
-      <c r="Y42" s="72"/>
-      <c r="Z42" s="72"/>
-      <c r="AA42" s="72"/>
-      <c r="AB42" s="73"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="56"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="56"/>
+      <c r="X42" s="56"/>
+      <c r="Y42" s="56"/>
+      <c r="Z42" s="56"/>
+      <c r="AA42" s="56"/>
+      <c r="AB42" s="57"/>
     </row>
     <row r="43" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
@@ -3513,15 +3513,15 @@
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="72"/>
-      <c r="X43" s="72"/>
-      <c r="Y43" s="72"/>
-      <c r="Z43" s="72"/>
-      <c r="AA43" s="72"/>
-      <c r="AB43" s="73"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56"/>
+      <c r="Y43" s="56"/>
+      <c r="Z43" s="56"/>
+      <c r="AA43" s="56"/>
+      <c r="AB43" s="57"/>
     </row>
     <row r="44" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
@@ -3566,15 +3566,15 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="72"/>
-      <c r="Z44" s="72"/>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="73"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="56"/>
+      <c r="AA44" s="56"/>
+      <c r="AB44" s="57"/>
     </row>
     <row r="45" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
@@ -3619,15 +3619,15 @@
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="72"/>
-      <c r="X45" s="72"/>
-      <c r="Y45" s="72"/>
-      <c r="Z45" s="72"/>
-      <c r="AA45" s="72"/>
-      <c r="AB45" s="73"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="56"/>
+      <c r="Z45" s="56"/>
+      <c r="AA45" s="56"/>
+      <c r="AB45" s="57"/>
     </row>
     <row r="46" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
@@ -3672,15 +3672,15 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="72"/>
-      <c r="X46" s="72"/>
-      <c r="Y46" s="72"/>
-      <c r="Z46" s="72"/>
-      <c r="AA46" s="72"/>
-      <c r="AB46" s="73"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="56"/>
+      <c r="AB46" s="57"/>
     </row>
     <row r="47" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
@@ -3725,15 +3725,15 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="72"/>
-      <c r="X47" s="72"/>
-      <c r="Y47" s="72"/>
-      <c r="Z47" s="72"/>
-      <c r="AA47" s="72"/>
-      <c r="AB47" s="73"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="56"/>
+      <c r="AA47" s="56"/>
+      <c r="AB47" s="57"/>
     </row>
     <row r="48" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
@@ -3778,15 +3778,15 @@
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
       <c r="S48" s="15"/>
-      <c r="T48" s="71"/>
-      <c r="U48" s="72"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="72"/>
-      <c r="X48" s="72"/>
-      <c r="Y48" s="72"/>
-      <c r="Z48" s="72"/>
-      <c r="AA48" s="72"/>
-      <c r="AB48" s="73"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="57"/>
     </row>
     <row r="49" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
@@ -3831,15 +3831,15 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="71"/>
-      <c r="U49" s="72"/>
-      <c r="V49" s="72"/>
-      <c r="W49" s="72"/>
-      <c r="X49" s="72"/>
-      <c r="Y49" s="72"/>
-      <c r="Z49" s="72"/>
-      <c r="AA49" s="72"/>
-      <c r="AB49" s="73"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="57"/>
     </row>
     <row r="50" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
@@ -3849,9 +3849,9 @@
       <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="P51" s="74"/>
-      <c r="Q51" s="74"/>
-      <c r="R51" s="74"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B52" s="50"/>
@@ -3908,10 +3908,10 @@
     </row>
     <row r="58" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="35"/>
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="77"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="36"/>
       <c r="F58" s="37" t="s">
         <v>79</v>
@@ -4829,6 +4829,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="B7:AB7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B16:AB16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="T49:AB49"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="T35:AB35"/>
+    <mergeCell ref="T43:AB43"/>
+    <mergeCell ref="T42:AB42"/>
+    <mergeCell ref="T41:AB41"/>
+    <mergeCell ref="T40:AB40"/>
+    <mergeCell ref="B33:AB33"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="T34:AB34"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="T13:U13"/>
     <mergeCell ref="P51:R51"/>
@@ -4845,41 +4880,6 @@
     <mergeCell ref="T45:AB45"/>
     <mergeCell ref="T44:AB44"/>
     <mergeCell ref="T39:AB39"/>
-    <mergeCell ref="T49:AB49"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="T35:AB35"/>
-    <mergeCell ref="T43:AB43"/>
-    <mergeCell ref="T42:AB42"/>
-    <mergeCell ref="T41:AB41"/>
-    <mergeCell ref="T40:AB40"/>
-    <mergeCell ref="B33:AB33"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="T34:AB34"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B16:AB16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="B7:AB7"/>
-    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -4935,25 +4935,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -4971,48 +4971,48 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
     </row>
     <row r="7" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" s="25"/>
@@ -5029,8 +5029,8 @@
         <v>1899-12-30</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -5038,33 +5038,33 @@
       <c r="K9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="54" t="str">
+      <c r="L9" s="61" t="str">
         <f>'PAGE 1 OF'!L9:M9</f>
         <v>CENTURYLINK</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="Q9" s="58" t="s">
+      <c r="M9" s="61"/>
+      <c r="Q9" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="78"/>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="54">
+      <c r="C10" s="70"/>
+      <c r="D10" s="61">
         <f>'PAGE 1 OF'!D10:F10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -5072,16 +5072,16 @@
       <c r="K10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="61">
         <f>'PAGE 1 OF'!L10:M10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="54"/>
-      <c r="Q10" s="58" t="s">
+      <c r="M10" s="61"/>
+      <c r="Q10" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
       <c r="T10" s="53" t="s">
         <v>18</v>
       </c>
@@ -5094,16 +5094,16 @@
     </row>
     <row r="11" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="54">
+      <c r="C11" s="70"/>
+      <c r="D11" s="61">
         <f>'PAGE 1 OF'!D11:F11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -5111,16 +5111,16 @@
       <c r="K11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="61">
         <f>'PAGE 1 OF'!L11:M11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="54"/>
-      <c r="Q11" s="58" t="s">
+      <c r="M11" s="61"/>
+      <c r="Q11" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
       <c r="T11" s="53" t="s">
         <v>18</v>
       </c>
@@ -5133,16 +5133,16 @@
     </row>
     <row r="12" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="54">
+      <c r="C12" s="70"/>
+      <c r="D12" s="61">
         <f>'PAGE 1 OF'!D12:F12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -5150,16 +5150,16 @@
       <c r="K12" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="61">
         <f>'PAGE 1 OF'!L12:M12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="54"/>
-      <c r="Q12" s="58" t="s">
+      <c r="M12" s="61"/>
+      <c r="Q12" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
       <c r="T12" s="53" t="s">
         <v>18</v>
       </c>
@@ -5172,16 +5172,16 @@
     </row>
     <row r="13" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="54">
+      <c r="C13" s="69"/>
+      <c r="D13" s="61">
         <f>'PAGE 1 OF'!D13:F13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="5"/>
@@ -5189,16 +5189,16 @@
       <c r="K13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="61">
         <f>'PAGE 1 OF'!L13:M13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="54"/>
-      <c r="Q13" s="58" t="s">
+      <c r="M13" s="61"/>
+      <c r="Q13" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
       <c r="T13" s="53" t="s">
         <v>18</v>
       </c>
@@ -5211,16 +5211,16 @@
     </row>
     <row r="14" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="54">
+      <c r="C14" s="73"/>
+      <c r="D14" s="61">
         <f>'PAGE 1 OF'!D14:F14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -5228,11 +5228,11 @@
       <c r="K14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="54">
+      <c r="L14" s="61">
         <f>'PAGE 1 OF'!L14:M14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="54"/>
+      <c r="M14" s="61"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B15" s="26"/>
@@ -5248,35 +5248,35 @@
     </row>
     <row r="16" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
     </row>
     <row r="17" spans="1:28" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
@@ -5863,35 +5863,35 @@
     </row>
     <row r="33" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="76"/>
-      <c r="U33" s="76"/>
-      <c r="V33" s="76"/>
-      <c r="W33" s="76"/>
-      <c r="X33" s="76"/>
-      <c r="Y33" s="76"/>
-      <c r="Z33" s="76"/>
-      <c r="AA33" s="76"/>
-      <c r="AB33" s="76"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
     </row>
     <row r="34" spans="1:28" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
@@ -5955,17 +5955,17 @@
       <c r="S34" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="T34" s="63" t="s">
+      <c r="T34" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="63"/>
-      <c r="Z34" s="63"/>
-      <c r="AA34" s="63"/>
-      <c r="AB34" s="63"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
     </row>
     <row r="35" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
@@ -6010,15 +6010,15 @@
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="73"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="57"/>
     </row>
     <row r="36" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
@@ -6064,15 +6064,15 @@
       <c r="Q36" s="15"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="72"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="73"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="57"/>
     </row>
     <row r="37" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
@@ -6118,15 +6118,15 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="72"/>
-      <c r="Y37" s="72"/>
-      <c r="Z37" s="72"/>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="73"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="57"/>
     </row>
     <row r="38" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
@@ -6172,15 +6172,15 @@
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="73"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="57"/>
     </row>
     <row r="39" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
@@ -6226,15 +6226,15 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="72"/>
-      <c r="AA39" s="72"/>
-      <c r="AB39" s="73"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="57"/>
     </row>
     <row r="40" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
@@ -6280,15 +6280,15 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-      <c r="AA40" s="72"/>
-      <c r="AB40" s="73"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
+      <c r="AA40" s="56"/>
+      <c r="AB40" s="57"/>
     </row>
     <row r="41" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
@@ -6334,15 +6334,15 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
-      <c r="X41" s="72"/>
-      <c r="Y41" s="72"/>
-      <c r="Z41" s="72"/>
-      <c r="AA41" s="72"/>
-      <c r="AB41" s="73"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="56"/>
+      <c r="Z41" s="56"/>
+      <c r="AA41" s="56"/>
+      <c r="AB41" s="57"/>
     </row>
     <row r="42" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
@@ -6388,15 +6388,15 @@
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="72"/>
-      <c r="Y42" s="72"/>
-      <c r="Z42" s="72"/>
-      <c r="AA42" s="72"/>
-      <c r="AB42" s="73"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="56"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="56"/>
+      <c r="X42" s="56"/>
+      <c r="Y42" s="56"/>
+      <c r="Z42" s="56"/>
+      <c r="AA42" s="56"/>
+      <c r="AB42" s="57"/>
     </row>
     <row r="43" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
@@ -6442,15 +6442,15 @@
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="72"/>
-      <c r="X43" s="72"/>
-      <c r="Y43" s="72"/>
-      <c r="Z43" s="72"/>
-      <c r="AA43" s="72"/>
-      <c r="AB43" s="73"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56"/>
+      <c r="Y43" s="56"/>
+      <c r="Z43" s="56"/>
+      <c r="AA43" s="56"/>
+      <c r="AB43" s="57"/>
     </row>
     <row r="44" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
@@ -6496,15 +6496,15 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="72"/>
-      <c r="Z44" s="72"/>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="73"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="56"/>
+      <c r="AA44" s="56"/>
+      <c r="AB44" s="57"/>
     </row>
     <row r="45" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
@@ -6550,15 +6550,15 @@
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="72"/>
-      <c r="X45" s="72"/>
-      <c r="Y45" s="72"/>
-      <c r="Z45" s="72"/>
-      <c r="AA45" s="72"/>
-      <c r="AB45" s="73"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="56"/>
+      <c r="Z45" s="56"/>
+      <c r="AA45" s="56"/>
+      <c r="AB45" s="57"/>
     </row>
     <row r="46" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
@@ -6604,15 +6604,15 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="72"/>
-      <c r="X46" s="72"/>
-      <c r="Y46" s="72"/>
-      <c r="Z46" s="72"/>
-      <c r="AA46" s="72"/>
-      <c r="AB46" s="73"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="56"/>
+      <c r="AB46" s="57"/>
     </row>
     <row r="47" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
@@ -6658,15 +6658,15 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="72"/>
-      <c r="X47" s="72"/>
-      <c r="Y47" s="72"/>
-      <c r="Z47" s="72"/>
-      <c r="AA47" s="72"/>
-      <c r="AB47" s="73"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="56"/>
+      <c r="AA47" s="56"/>
+      <c r="AB47" s="57"/>
     </row>
     <row r="48" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
@@ -6712,15 +6712,15 @@
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
       <c r="S48" s="15"/>
-      <c r="T48" s="71"/>
-      <c r="U48" s="72"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="72"/>
-      <c r="X48" s="72"/>
-      <c r="Y48" s="72"/>
-      <c r="Z48" s="72"/>
-      <c r="AA48" s="72"/>
-      <c r="AB48" s="73"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="57"/>
     </row>
     <row r="49" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
@@ -6766,15 +6766,15 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="71"/>
-      <c r="U49" s="72"/>
-      <c r="V49" s="72"/>
-      <c r="W49" s="72"/>
-      <c r="X49" s="72"/>
-      <c r="Y49" s="72"/>
-      <c r="Z49" s="72"/>
-      <c r="AA49" s="72"/>
-      <c r="AB49" s="73"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="57"/>
     </row>
     <row r="50" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
@@ -6784,9 +6784,9 @@
       <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="P51" s="74"/>
-      <c r="Q51" s="74"/>
-      <c r="R51" s="74"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
     </row>
     <row r="53" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="35"/>
@@ -6825,10 +6825,10 @@
     </row>
     <row r="58" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="35"/>
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="77"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="36"/>
       <c r="F58" s="37" t="s">
         <v>79</v>
@@ -7518,11 +7518,42 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="T40:AB40"/>
-    <mergeCell ref="T39:AB39"/>
-    <mergeCell ref="T38:AB38"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B7:AB7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T36:AB36"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B16:AB16"/>
+    <mergeCell ref="B33:AB33"/>
+    <mergeCell ref="T34:AB34"/>
+    <mergeCell ref="T35:AB35"/>
     <mergeCell ref="T37:AB37"/>
     <mergeCell ref="T49:AB49"/>
     <mergeCell ref="T48:AB48"/>
@@ -7533,42 +7564,11 @@
     <mergeCell ref="T43:AB43"/>
     <mergeCell ref="T42:AB42"/>
     <mergeCell ref="T41:AB41"/>
-    <mergeCell ref="T36:AB36"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B16:AB16"/>
-    <mergeCell ref="B33:AB33"/>
-    <mergeCell ref="T34:AB34"/>
-    <mergeCell ref="T35:AB35"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B7:AB7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="T40:AB40"/>
+    <mergeCell ref="T39:AB39"/>
+    <mergeCell ref="T38:AB38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14" xr:uid="{00000000-0002-0000-0100-000003000000}">
@@ -7623,25 +7623,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -7659,48 +7659,48 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
     </row>
     <row r="7" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" s="25"/>
@@ -7717,8 +7717,8 @@
         <v>1899-12-30</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -7726,33 +7726,33 @@
       <c r="K9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="54" t="str">
+      <c r="L9" s="61" t="str">
         <f>'PAGE 1 OF'!L9:M9</f>
         <v>CENTURYLINK</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="Q9" s="58" t="s">
+      <c r="M9" s="61"/>
+      <c r="Q9" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="78"/>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="54">
+      <c r="C10" s="70"/>
+      <c r="D10" s="61">
         <f>'PAGE 1 OF'!D10:F10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -7760,16 +7760,16 @@
       <c r="K10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="61">
         <f>'PAGE 1 OF'!L10:M10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="54"/>
-      <c r="Q10" s="58" t="s">
+      <c r="M10" s="61"/>
+      <c r="Q10" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
       <c r="T10" s="53" t="s">
         <v>18</v>
       </c>
@@ -7782,16 +7782,16 @@
     </row>
     <row r="11" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="54">
+      <c r="C11" s="70"/>
+      <c r="D11" s="61">
         <f>'PAGE 1 OF'!D11:F11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -7799,16 +7799,16 @@
       <c r="K11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="61">
         <f>'PAGE 1 OF'!L11:M11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="54"/>
-      <c r="Q11" s="58" t="s">
+      <c r="M11" s="61"/>
+      <c r="Q11" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
       <c r="T11" s="53" t="s">
         <v>18</v>
       </c>
@@ -7821,16 +7821,16 @@
     </row>
     <row r="12" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="54">
+      <c r="C12" s="70"/>
+      <c r="D12" s="61">
         <f>'PAGE 1 OF'!D12:F12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -7838,16 +7838,16 @@
       <c r="K12" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="61">
         <f>'PAGE 1 OF'!L12:M12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="54"/>
-      <c r="Q12" s="58" t="s">
+      <c r="M12" s="61"/>
+      <c r="Q12" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
       <c r="T12" s="53" t="s">
         <v>18</v>
       </c>
@@ -7860,16 +7860,16 @@
     </row>
     <row r="13" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="54">
+      <c r="C13" s="69"/>
+      <c r="D13" s="61">
         <f>'PAGE 1 OF'!D13:F13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="5"/>
@@ -7877,16 +7877,16 @@
       <c r="K13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="61">
         <f>'PAGE 1 OF'!L13:M13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="54"/>
-      <c r="Q13" s="58" t="s">
+      <c r="M13" s="61"/>
+      <c r="Q13" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
       <c r="T13" s="53" t="s">
         <v>18</v>
       </c>
@@ -7899,16 +7899,16 @@
     </row>
     <row r="14" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="54">
+      <c r="C14" s="73"/>
+      <c r="D14" s="61">
         <f>'PAGE 1 OF'!D14:F14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -7916,11 +7916,11 @@
       <c r="K14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="54">
+      <c r="L14" s="61">
         <f>'PAGE 1 OF'!L14:M14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="54"/>
+      <c r="M14" s="61"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B15" s="26"/>
@@ -7936,35 +7936,35 @@
     </row>
     <row r="16" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
     </row>
     <row r="17" spans="1:28" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
@@ -8551,35 +8551,35 @@
     </row>
     <row r="33" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="76"/>
-      <c r="U33" s="76"/>
-      <c r="V33" s="76"/>
-      <c r="W33" s="76"/>
-      <c r="X33" s="76"/>
-      <c r="Y33" s="76"/>
-      <c r="Z33" s="76"/>
-      <c r="AA33" s="76"/>
-      <c r="AB33" s="76"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
     </row>
     <row r="34" spans="1:28" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
@@ -8643,17 +8643,17 @@
       <c r="S34" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="T34" s="63" t="s">
+      <c r="T34" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="63"/>
-      <c r="Z34" s="63"/>
-      <c r="AA34" s="63"/>
-      <c r="AB34" s="63"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
     </row>
     <row r="35" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
@@ -8698,15 +8698,15 @@
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="73"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="57"/>
     </row>
     <row r="36" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
@@ -8752,15 +8752,15 @@
       <c r="Q36" s="15"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="72"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="73"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="57"/>
     </row>
     <row r="37" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
@@ -8806,15 +8806,15 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="72"/>
-      <c r="Y37" s="72"/>
-      <c r="Z37" s="72"/>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="73"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="57"/>
     </row>
     <row r="38" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
@@ -8860,15 +8860,15 @@
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="73"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="57"/>
     </row>
     <row r="39" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
@@ -8914,15 +8914,15 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="72"/>
-      <c r="AA39" s="72"/>
-      <c r="AB39" s="73"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="57"/>
     </row>
     <row r="40" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
@@ -8968,15 +8968,15 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-      <c r="AA40" s="72"/>
-      <c r="AB40" s="73"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
+      <c r="AA40" s="56"/>
+      <c r="AB40" s="57"/>
     </row>
     <row r="41" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
@@ -9022,15 +9022,15 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
-      <c r="X41" s="72"/>
-      <c r="Y41" s="72"/>
-      <c r="Z41" s="72"/>
-      <c r="AA41" s="72"/>
-      <c r="AB41" s="73"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="56"/>
+      <c r="Z41" s="56"/>
+      <c r="AA41" s="56"/>
+      <c r="AB41" s="57"/>
     </row>
     <row r="42" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
@@ -9076,15 +9076,15 @@
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="72"/>
-      <c r="Y42" s="72"/>
-      <c r="Z42" s="72"/>
-      <c r="AA42" s="72"/>
-      <c r="AB42" s="73"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="56"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="56"/>
+      <c r="X42" s="56"/>
+      <c r="Y42" s="56"/>
+      <c r="Z42" s="56"/>
+      <c r="AA42" s="56"/>
+      <c r="AB42" s="57"/>
     </row>
     <row r="43" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
@@ -9130,15 +9130,15 @@
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="72"/>
-      <c r="X43" s="72"/>
-      <c r="Y43" s="72"/>
-      <c r="Z43" s="72"/>
-      <c r="AA43" s="72"/>
-      <c r="AB43" s="73"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56"/>
+      <c r="Y43" s="56"/>
+      <c r="Z43" s="56"/>
+      <c r="AA43" s="56"/>
+      <c r="AB43" s="57"/>
     </row>
     <row r="44" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
@@ -9184,15 +9184,15 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="72"/>
-      <c r="Z44" s="72"/>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="73"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="56"/>
+      <c r="AA44" s="56"/>
+      <c r="AB44" s="57"/>
     </row>
     <row r="45" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
@@ -9238,15 +9238,15 @@
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="72"/>
-      <c r="X45" s="72"/>
-      <c r="Y45" s="72"/>
-      <c r="Z45" s="72"/>
-      <c r="AA45" s="72"/>
-      <c r="AB45" s="73"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="56"/>
+      <c r="Z45" s="56"/>
+      <c r="AA45" s="56"/>
+      <c r="AB45" s="57"/>
     </row>
     <row r="46" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
@@ -9292,15 +9292,15 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="72"/>
-      <c r="X46" s="72"/>
-      <c r="Y46" s="72"/>
-      <c r="Z46" s="72"/>
-      <c r="AA46" s="72"/>
-      <c r="AB46" s="73"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="56"/>
+      <c r="AB46" s="57"/>
     </row>
     <row r="47" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
@@ -9346,15 +9346,15 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="72"/>
-      <c r="X47" s="72"/>
-      <c r="Y47" s="72"/>
-      <c r="Z47" s="72"/>
-      <c r="AA47" s="72"/>
-      <c r="AB47" s="73"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="56"/>
+      <c r="AA47" s="56"/>
+      <c r="AB47" s="57"/>
     </row>
     <row r="48" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
@@ -9400,15 +9400,15 @@
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
       <c r="S48" s="15"/>
-      <c r="T48" s="71"/>
-      <c r="U48" s="72"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="72"/>
-      <c r="X48" s="72"/>
-      <c r="Y48" s="72"/>
-      <c r="Z48" s="72"/>
-      <c r="AA48" s="72"/>
-      <c r="AB48" s="73"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="57"/>
     </row>
     <row r="49" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
@@ -9454,15 +9454,15 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="71"/>
-      <c r="U49" s="72"/>
-      <c r="V49" s="72"/>
-      <c r="W49" s="72"/>
-      <c r="X49" s="72"/>
-      <c r="Y49" s="72"/>
-      <c r="Z49" s="72"/>
-      <c r="AA49" s="72"/>
-      <c r="AB49" s="73"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="57"/>
     </row>
     <row r="50" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
@@ -9472,9 +9472,9 @@
       <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="P51" s="74"/>
-      <c r="Q51" s="74"/>
-      <c r="R51" s="74"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
     </row>
     <row r="53" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="35"/>
@@ -9513,10 +9513,10 @@
     </row>
     <row r="58" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="35"/>
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="77"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="36"/>
       <c r="F58" s="37" t="s">
         <v>79</v>
@@ -10206,11 +10206,42 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="T40:AB40"/>
-    <mergeCell ref="T39:AB39"/>
-    <mergeCell ref="T38:AB38"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B7:AB7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T36:AB36"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B16:AB16"/>
+    <mergeCell ref="B33:AB33"/>
+    <mergeCell ref="T34:AB34"/>
+    <mergeCell ref="T35:AB35"/>
     <mergeCell ref="T37:AB37"/>
     <mergeCell ref="T49:AB49"/>
     <mergeCell ref="T48:AB48"/>
@@ -10221,42 +10252,11 @@
     <mergeCell ref="T43:AB43"/>
     <mergeCell ref="T42:AB42"/>
     <mergeCell ref="T41:AB41"/>
-    <mergeCell ref="T36:AB36"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B16:AB16"/>
-    <mergeCell ref="B33:AB33"/>
-    <mergeCell ref="T34:AB34"/>
-    <mergeCell ref="T35:AB35"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B7:AB7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="T40:AB40"/>
+    <mergeCell ref="T39:AB39"/>
+    <mergeCell ref="T38:AB38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14" xr:uid="{00000000-0002-0000-0200-000003000000}">
@@ -10311,25 +10311,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -10347,48 +10347,48 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
     </row>
     <row r="7" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" s="25"/>
@@ -10405,8 +10405,8 @@
         <v>1899-12-30</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -10414,33 +10414,33 @@
       <c r="K9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="54" t="str">
+      <c r="L9" s="61" t="str">
         <f>'PAGE 1 OF'!L9:M9</f>
         <v>CENTURYLINK</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="Q9" s="58" t="s">
+      <c r="M9" s="61"/>
+      <c r="Q9" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="78"/>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="54">
+      <c r="C10" s="70"/>
+      <c r="D10" s="61">
         <f>'PAGE 1 OF'!D10:F10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -10448,16 +10448,16 @@
       <c r="K10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="61">
         <f>'PAGE 1 OF'!L10:M10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="54"/>
-      <c r="Q10" s="58" t="s">
+      <c r="M10" s="61"/>
+      <c r="Q10" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
       <c r="T10" s="53" t="s">
         <v>18</v>
       </c>
@@ -10470,16 +10470,16 @@
     </row>
     <row r="11" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="54">
+      <c r="C11" s="70"/>
+      <c r="D11" s="61">
         <f>'PAGE 1 OF'!D11:F11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -10487,16 +10487,16 @@
       <c r="K11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="61">
         <f>'PAGE 1 OF'!L11:M11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="54"/>
-      <c r="Q11" s="58" t="s">
+      <c r="M11" s="61"/>
+      <c r="Q11" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
       <c r="T11" s="53" t="s">
         <v>18</v>
       </c>
@@ -10509,16 +10509,16 @@
     </row>
     <row r="12" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="54">
+      <c r="C12" s="70"/>
+      <c r="D12" s="61">
         <f>'PAGE 1 OF'!D12:F12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -10526,16 +10526,16 @@
       <c r="K12" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="61">
         <f>'PAGE 1 OF'!L12:M12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="54"/>
-      <c r="Q12" s="58" t="s">
+      <c r="M12" s="61"/>
+      <c r="Q12" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
       <c r="T12" s="53" t="s">
         <v>18</v>
       </c>
@@ -10548,16 +10548,16 @@
     </row>
     <row r="13" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="54">
+      <c r="C13" s="69"/>
+      <c r="D13" s="61">
         <f>'PAGE 1 OF'!D13:F13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="5"/>
@@ -10565,16 +10565,16 @@
       <c r="K13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="61">
         <f>'PAGE 1 OF'!L13:M13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="54"/>
-      <c r="Q13" s="58" t="s">
+      <c r="M13" s="61"/>
+      <c r="Q13" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
       <c r="T13" s="53" t="s">
         <v>18</v>
       </c>
@@ -10587,16 +10587,16 @@
     </row>
     <row r="14" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="54">
+      <c r="C14" s="73"/>
+      <c r="D14" s="61">
         <f>'PAGE 1 OF'!D14:F14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -10604,11 +10604,11 @@
       <c r="K14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="54">
+      <c r="L14" s="61">
         <f>'PAGE 1 OF'!L14:M14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="54"/>
+      <c r="M14" s="61"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B15" s="26"/>
@@ -10624,35 +10624,35 @@
     </row>
     <row r="16" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
     </row>
     <row r="17" spans="1:28" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
@@ -11239,35 +11239,35 @@
     </row>
     <row r="33" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="76"/>
-      <c r="U33" s="76"/>
-      <c r="V33" s="76"/>
-      <c r="W33" s="76"/>
-      <c r="X33" s="76"/>
-      <c r="Y33" s="76"/>
-      <c r="Z33" s="76"/>
-      <c r="AA33" s="76"/>
-      <c r="AB33" s="76"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
     </row>
     <row r="34" spans="1:28" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
@@ -11331,17 +11331,17 @@
       <c r="S34" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="T34" s="63" t="s">
+      <c r="T34" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="63"/>
-      <c r="Z34" s="63"/>
-      <c r="AA34" s="63"/>
-      <c r="AB34" s="63"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
     </row>
     <row r="35" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
@@ -11386,15 +11386,15 @@
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="73"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="57"/>
     </row>
     <row r="36" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
@@ -11440,15 +11440,15 @@
       <c r="Q36" s="15"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="72"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="73"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="57"/>
     </row>
     <row r="37" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
@@ -11494,15 +11494,15 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="72"/>
-      <c r="Y37" s="72"/>
-      <c r="Z37" s="72"/>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="73"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="57"/>
     </row>
     <row r="38" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
@@ -11548,15 +11548,15 @@
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="73"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="57"/>
     </row>
     <row r="39" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
@@ -11602,15 +11602,15 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="72"/>
-      <c r="AA39" s="72"/>
-      <c r="AB39" s="73"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="57"/>
     </row>
     <row r="40" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
@@ -11656,15 +11656,15 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-      <c r="AA40" s="72"/>
-      <c r="AB40" s="73"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
+      <c r="AA40" s="56"/>
+      <c r="AB40" s="57"/>
     </row>
     <row r="41" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
@@ -11710,15 +11710,15 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
-      <c r="X41" s="72"/>
-      <c r="Y41" s="72"/>
-      <c r="Z41" s="72"/>
-      <c r="AA41" s="72"/>
-      <c r="AB41" s="73"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="56"/>
+      <c r="Z41" s="56"/>
+      <c r="AA41" s="56"/>
+      <c r="AB41" s="57"/>
     </row>
     <row r="42" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
@@ -11764,15 +11764,15 @@
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="72"/>
-      <c r="Y42" s="72"/>
-      <c r="Z42" s="72"/>
-      <c r="AA42" s="72"/>
-      <c r="AB42" s="73"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="56"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="56"/>
+      <c r="X42" s="56"/>
+      <c r="Y42" s="56"/>
+      <c r="Z42" s="56"/>
+      <c r="AA42" s="56"/>
+      <c r="AB42" s="57"/>
     </row>
     <row r="43" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
@@ -11818,15 +11818,15 @@
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="72"/>
-      <c r="X43" s="72"/>
-      <c r="Y43" s="72"/>
-      <c r="Z43" s="72"/>
-      <c r="AA43" s="72"/>
-      <c r="AB43" s="73"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56"/>
+      <c r="Y43" s="56"/>
+      <c r="Z43" s="56"/>
+      <c r="AA43" s="56"/>
+      <c r="AB43" s="57"/>
     </row>
     <row r="44" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
@@ -11872,15 +11872,15 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="72"/>
-      <c r="Z44" s="72"/>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="73"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="56"/>
+      <c r="AA44" s="56"/>
+      <c r="AB44" s="57"/>
     </row>
     <row r="45" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
@@ -11926,15 +11926,15 @@
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="72"/>
-      <c r="X45" s="72"/>
-      <c r="Y45" s="72"/>
-      <c r="Z45" s="72"/>
-      <c r="AA45" s="72"/>
-      <c r="AB45" s="73"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="56"/>
+      <c r="Z45" s="56"/>
+      <c r="AA45" s="56"/>
+      <c r="AB45" s="57"/>
     </row>
     <row r="46" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
@@ -11980,15 +11980,15 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="72"/>
-      <c r="X46" s="72"/>
-      <c r="Y46" s="72"/>
-      <c r="Z46" s="72"/>
-      <c r="AA46" s="72"/>
-      <c r="AB46" s="73"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="56"/>
+      <c r="AB46" s="57"/>
     </row>
     <row r="47" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
@@ -12034,15 +12034,15 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="72"/>
-      <c r="X47" s="72"/>
-      <c r="Y47" s="72"/>
-      <c r="Z47" s="72"/>
-      <c r="AA47" s="72"/>
-      <c r="AB47" s="73"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="56"/>
+      <c r="AA47" s="56"/>
+      <c r="AB47" s="57"/>
     </row>
     <row r="48" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
@@ -12088,15 +12088,15 @@
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
       <c r="S48" s="15"/>
-      <c r="T48" s="71"/>
-      <c r="U48" s="72"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="72"/>
-      <c r="X48" s="72"/>
-      <c r="Y48" s="72"/>
-      <c r="Z48" s="72"/>
-      <c r="AA48" s="72"/>
-      <c r="AB48" s="73"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="57"/>
     </row>
     <row r="49" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
@@ -12142,15 +12142,15 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="71"/>
-      <c r="U49" s="72"/>
-      <c r="V49" s="72"/>
-      <c r="W49" s="72"/>
-      <c r="X49" s="72"/>
-      <c r="Y49" s="72"/>
-      <c r="Z49" s="72"/>
-      <c r="AA49" s="72"/>
-      <c r="AB49" s="73"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="57"/>
     </row>
     <row r="50" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
@@ -12160,9 +12160,9 @@
       <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="P51" s="74"/>
-      <c r="Q51" s="74"/>
-      <c r="R51" s="74"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
     </row>
     <row r="53" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="35"/>
@@ -12201,10 +12201,10 @@
     </row>
     <row r="58" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="35"/>
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="77"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="36"/>
       <c r="F58" s="37" t="s">
         <v>79</v>
@@ -12894,11 +12894,42 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="T40:AB40"/>
-    <mergeCell ref="T39:AB39"/>
-    <mergeCell ref="T38:AB38"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B7:AB7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T36:AB36"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B16:AB16"/>
+    <mergeCell ref="B33:AB33"/>
+    <mergeCell ref="T34:AB34"/>
+    <mergeCell ref="T35:AB35"/>
     <mergeCell ref="T37:AB37"/>
     <mergeCell ref="T49:AB49"/>
     <mergeCell ref="T48:AB48"/>
@@ -12909,42 +12940,11 @@
     <mergeCell ref="T43:AB43"/>
     <mergeCell ref="T42:AB42"/>
     <mergeCell ref="T41:AB41"/>
-    <mergeCell ref="T36:AB36"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B16:AB16"/>
-    <mergeCell ref="B33:AB33"/>
-    <mergeCell ref="T34:AB34"/>
-    <mergeCell ref="T35:AB35"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B7:AB7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="T40:AB40"/>
+    <mergeCell ref="T39:AB39"/>
+    <mergeCell ref="T38:AB38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14" xr:uid="{00000000-0002-0000-0300-000003000000}">
@@ -12999,25 +12999,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -13035,48 +13035,48 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
     </row>
     <row r="7" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" s="25"/>
@@ -13093,8 +13093,8 @@
         <v>1899-12-30</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -13102,33 +13102,33 @@
       <c r="K9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="54" t="str">
+      <c r="L9" s="61" t="str">
         <f>'PAGE 1 OF'!L9:M9</f>
         <v>CENTURYLINK</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="Q9" s="58" t="s">
+      <c r="M9" s="61"/>
+      <c r="Q9" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="78"/>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="54">
+      <c r="C10" s="70"/>
+      <c r="D10" s="61">
         <f>'PAGE 1 OF'!D10:F10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -13136,16 +13136,16 @@
       <c r="K10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="61">
         <f>'PAGE 1 OF'!L10:M10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="54"/>
-      <c r="Q10" s="58" t="s">
+      <c r="M10" s="61"/>
+      <c r="Q10" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
       <c r="T10" s="53" t="s">
         <v>18</v>
       </c>
@@ -13158,16 +13158,16 @@
     </row>
     <row r="11" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="54">
+      <c r="C11" s="70"/>
+      <c r="D11" s="61">
         <f>'PAGE 1 OF'!D11:F11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -13175,16 +13175,16 @@
       <c r="K11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="61">
         <f>'PAGE 1 OF'!L11:M11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="54"/>
-      <c r="Q11" s="58" t="s">
+      <c r="M11" s="61"/>
+      <c r="Q11" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
       <c r="T11" s="53" t="s">
         <v>18</v>
       </c>
@@ -13197,16 +13197,16 @@
     </row>
     <row r="12" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="54">
+      <c r="C12" s="70"/>
+      <c r="D12" s="61">
         <f>'PAGE 1 OF'!D12:F12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -13214,16 +13214,16 @@
       <c r="K12" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="61">
         <f>'PAGE 1 OF'!L12:M12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="54"/>
-      <c r="Q12" s="58" t="s">
+      <c r="M12" s="61"/>
+      <c r="Q12" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
       <c r="T12" s="53" t="s">
         <v>18</v>
       </c>
@@ -13236,16 +13236,16 @@
     </row>
     <row r="13" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="54">
+      <c r="C13" s="69"/>
+      <c r="D13" s="61">
         <f>'PAGE 1 OF'!D13:F13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="5"/>
@@ -13253,16 +13253,16 @@
       <c r="K13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="61">
         <f>'PAGE 1 OF'!L13:M13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="54"/>
-      <c r="Q13" s="58" t="s">
+      <c r="M13" s="61"/>
+      <c r="Q13" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
       <c r="T13" s="53" t="s">
         <v>18</v>
       </c>
@@ -13275,16 +13275,16 @@
     </row>
     <row r="14" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="54">
+      <c r="C14" s="73"/>
+      <c r="D14" s="61">
         <f>'PAGE 1 OF'!D14:F14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -13292,11 +13292,11 @@
       <c r="K14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="54">
+      <c r="L14" s="61">
         <f>'PAGE 1 OF'!L14:M14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="54"/>
+      <c r="M14" s="61"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B15" s="26"/>
@@ -13312,35 +13312,35 @@
     </row>
     <row r="16" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
     </row>
     <row r="17" spans="1:28" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
@@ -13927,35 +13927,35 @@
     </row>
     <row r="33" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="76"/>
-      <c r="U33" s="76"/>
-      <c r="V33" s="76"/>
-      <c r="W33" s="76"/>
-      <c r="X33" s="76"/>
-      <c r="Y33" s="76"/>
-      <c r="Z33" s="76"/>
-      <c r="AA33" s="76"/>
-      <c r="AB33" s="76"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
     </row>
     <row r="34" spans="1:28" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
@@ -14019,17 +14019,17 @@
       <c r="S34" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="T34" s="63" t="s">
+      <c r="T34" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="63"/>
-      <c r="Z34" s="63"/>
-      <c r="AA34" s="63"/>
-      <c r="AB34" s="63"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
     </row>
     <row r="35" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
@@ -14074,15 +14074,15 @@
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="73"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="57"/>
     </row>
     <row r="36" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
@@ -14128,15 +14128,15 @@
       <c r="Q36" s="15"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="72"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="73"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="57"/>
     </row>
     <row r="37" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
@@ -14182,15 +14182,15 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="72"/>
-      <c r="Y37" s="72"/>
-      <c r="Z37" s="72"/>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="73"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="57"/>
     </row>
     <row r="38" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
@@ -14236,15 +14236,15 @@
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="73"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="57"/>
     </row>
     <row r="39" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
@@ -14290,15 +14290,15 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="72"/>
-      <c r="AA39" s="72"/>
-      <c r="AB39" s="73"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="57"/>
     </row>
     <row r="40" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
@@ -14344,15 +14344,15 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-      <c r="AA40" s="72"/>
-      <c r="AB40" s="73"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
+      <c r="AA40" s="56"/>
+      <c r="AB40" s="57"/>
     </row>
     <row r="41" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
@@ -14398,15 +14398,15 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
-      <c r="X41" s="72"/>
-      <c r="Y41" s="72"/>
-      <c r="Z41" s="72"/>
-      <c r="AA41" s="72"/>
-      <c r="AB41" s="73"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="56"/>
+      <c r="Z41" s="56"/>
+      <c r="AA41" s="56"/>
+      <c r="AB41" s="57"/>
     </row>
     <row r="42" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
@@ -14452,15 +14452,15 @@
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="72"/>
-      <c r="Y42" s="72"/>
-      <c r="Z42" s="72"/>
-      <c r="AA42" s="72"/>
-      <c r="AB42" s="73"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="56"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="56"/>
+      <c r="X42" s="56"/>
+      <c r="Y42" s="56"/>
+      <c r="Z42" s="56"/>
+      <c r="AA42" s="56"/>
+      <c r="AB42" s="57"/>
     </row>
     <row r="43" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
@@ -14506,15 +14506,15 @@
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="72"/>
-      <c r="X43" s="72"/>
-      <c r="Y43" s="72"/>
-      <c r="Z43" s="72"/>
-      <c r="AA43" s="72"/>
-      <c r="AB43" s="73"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56"/>
+      <c r="Y43" s="56"/>
+      <c r="Z43" s="56"/>
+      <c r="AA43" s="56"/>
+      <c r="AB43" s="57"/>
     </row>
     <row r="44" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
@@ -14560,15 +14560,15 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="72"/>
-      <c r="Z44" s="72"/>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="73"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="56"/>
+      <c r="AA44" s="56"/>
+      <c r="AB44" s="57"/>
     </row>
     <row r="45" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
@@ -14614,15 +14614,15 @@
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="72"/>
-      <c r="X45" s="72"/>
-      <c r="Y45" s="72"/>
-      <c r="Z45" s="72"/>
-      <c r="AA45" s="72"/>
-      <c r="AB45" s="73"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="56"/>
+      <c r="Z45" s="56"/>
+      <c r="AA45" s="56"/>
+      <c r="AB45" s="57"/>
     </row>
     <row r="46" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
@@ -14668,15 +14668,15 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="72"/>
-      <c r="X46" s="72"/>
-      <c r="Y46" s="72"/>
-      <c r="Z46" s="72"/>
-      <c r="AA46" s="72"/>
-      <c r="AB46" s="73"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="56"/>
+      <c r="AB46" s="57"/>
     </row>
     <row r="47" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
@@ -14722,15 +14722,15 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="72"/>
-      <c r="X47" s="72"/>
-      <c r="Y47" s="72"/>
-      <c r="Z47" s="72"/>
-      <c r="AA47" s="72"/>
-      <c r="AB47" s="73"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="56"/>
+      <c r="AA47" s="56"/>
+      <c r="AB47" s="57"/>
     </row>
     <row r="48" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
@@ -14776,15 +14776,15 @@
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
       <c r="S48" s="15"/>
-      <c r="T48" s="71"/>
-      <c r="U48" s="72"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="72"/>
-      <c r="X48" s="72"/>
-      <c r="Y48" s="72"/>
-      <c r="Z48" s="72"/>
-      <c r="AA48" s="72"/>
-      <c r="AB48" s="73"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="57"/>
     </row>
     <row r="49" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
@@ -14830,15 +14830,15 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="71"/>
-      <c r="U49" s="72"/>
-      <c r="V49" s="72"/>
-      <c r="W49" s="72"/>
-      <c r="X49" s="72"/>
-      <c r="Y49" s="72"/>
-      <c r="Z49" s="72"/>
-      <c r="AA49" s="72"/>
-      <c r="AB49" s="73"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="57"/>
     </row>
     <row r="50" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
@@ -14848,9 +14848,9 @@
       <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="P51" s="74"/>
-      <c r="Q51" s="74"/>
-      <c r="R51" s="74"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
     </row>
     <row r="53" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="35"/>
@@ -14889,10 +14889,10 @@
     </row>
     <row r="58" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="35"/>
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="77"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="36"/>
       <c r="F58" s="37" t="s">
         <v>79</v>
@@ -15582,11 +15582,42 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="T40:AB40"/>
-    <mergeCell ref="T39:AB39"/>
-    <mergeCell ref="T38:AB38"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B7:AB7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T36:AB36"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B16:AB16"/>
+    <mergeCell ref="B33:AB33"/>
+    <mergeCell ref="T34:AB34"/>
+    <mergeCell ref="T35:AB35"/>
     <mergeCell ref="T37:AB37"/>
     <mergeCell ref="T49:AB49"/>
     <mergeCell ref="T48:AB48"/>
@@ -15597,42 +15628,11 @@
     <mergeCell ref="T43:AB43"/>
     <mergeCell ref="T42:AB42"/>
     <mergeCell ref="T41:AB41"/>
-    <mergeCell ref="T36:AB36"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B16:AB16"/>
-    <mergeCell ref="B33:AB33"/>
-    <mergeCell ref="T34:AB34"/>
-    <mergeCell ref="T35:AB35"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B7:AB7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="T40:AB40"/>
+    <mergeCell ref="T39:AB39"/>
+    <mergeCell ref="T38:AB38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14" xr:uid="{00000000-0002-0000-0400-000003000000}">
@@ -15687,25 +15687,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -15723,48 +15723,48 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
     </row>
     <row r="7" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" s="25"/>
@@ -15781,8 +15781,8 @@
         <v>1899-12-30</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -15790,33 +15790,33 @@
       <c r="K9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="54" t="str">
+      <c r="L9" s="61" t="str">
         <f>'PAGE 1 OF'!L9:M9</f>
         <v>CENTURYLINK</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="Q9" s="58" t="s">
+      <c r="M9" s="61"/>
+      <c r="Q9" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="78"/>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="54">
+      <c r="C10" s="70"/>
+      <c r="D10" s="61">
         <f>'PAGE 1 OF'!D10:F10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -15824,16 +15824,16 @@
       <c r="K10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="61">
         <f>'PAGE 1 OF'!L10:M10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="54"/>
-      <c r="Q10" s="58" t="s">
+      <c r="M10" s="61"/>
+      <c r="Q10" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
       <c r="T10" s="53" t="s">
         <v>18</v>
       </c>
@@ -15846,16 +15846,16 @@
     </row>
     <row r="11" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="54">
+      <c r="C11" s="70"/>
+      <c r="D11" s="61">
         <f>'PAGE 1 OF'!D11:F11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -15863,16 +15863,16 @@
       <c r="K11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="61">
         <f>'PAGE 1 OF'!L11:M11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="54"/>
-      <c r="Q11" s="58" t="s">
+      <c r="M11" s="61"/>
+      <c r="Q11" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
       <c r="T11" s="53" t="s">
         <v>18</v>
       </c>
@@ -15885,16 +15885,16 @@
     </row>
     <row r="12" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="54">
+      <c r="C12" s="70"/>
+      <c r="D12" s="61">
         <f>'PAGE 1 OF'!D12:F12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -15902,16 +15902,16 @@
       <c r="K12" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="61">
         <f>'PAGE 1 OF'!L12:M12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="54"/>
-      <c r="Q12" s="58" t="s">
+      <c r="M12" s="61"/>
+      <c r="Q12" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
       <c r="T12" s="53" t="s">
         <v>18</v>
       </c>
@@ -15924,16 +15924,16 @@
     </row>
     <row r="13" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="54">
+      <c r="C13" s="69"/>
+      <c r="D13" s="61">
         <f>'PAGE 1 OF'!D13:F13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="5"/>
@@ -15941,16 +15941,16 @@
       <c r="K13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="61">
         <f>'PAGE 1 OF'!L13:M13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="54"/>
-      <c r="Q13" s="58" t="s">
+      <c r="M13" s="61"/>
+      <c r="Q13" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
       <c r="T13" s="53" t="s">
         <v>18</v>
       </c>
@@ -15963,16 +15963,16 @@
     </row>
     <row r="14" spans="1:28" s="3" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="54">
+      <c r="C14" s="73"/>
+      <c r="D14" s="61">
         <f>'PAGE 1 OF'!D14:F14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -15980,11 +15980,11 @@
       <c r="K14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="54">
+      <c r="L14" s="61">
         <f>'PAGE 1 OF'!L14:M14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="54"/>
+      <c r="M14" s="61"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B15" s="26"/>
@@ -16000,35 +16000,35 @@
     </row>
     <row r="16" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
     </row>
     <row r="17" spans="1:28" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
@@ -16615,35 +16615,35 @@
     </row>
     <row r="33" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="76"/>
-      <c r="U33" s="76"/>
-      <c r="V33" s="76"/>
-      <c r="W33" s="76"/>
-      <c r="X33" s="76"/>
-      <c r="Y33" s="76"/>
-      <c r="Z33" s="76"/>
-      <c r="AA33" s="76"/>
-      <c r="AB33" s="76"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
     </row>
     <row r="34" spans="1:28" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
@@ -16707,17 +16707,17 @@
       <c r="S34" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="T34" s="63" t="s">
+      <c r="T34" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="63"/>
-      <c r="Z34" s="63"/>
-      <c r="AA34" s="63"/>
-      <c r="AB34" s="63"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
     </row>
     <row r="35" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
@@ -16762,15 +16762,15 @@
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="73"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="57"/>
     </row>
     <row r="36" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
@@ -16816,15 +16816,15 @@
       <c r="Q36" s="15"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="72"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="73"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="57"/>
     </row>
     <row r="37" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
@@ -16870,15 +16870,15 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="72"/>
-      <c r="Y37" s="72"/>
-      <c r="Z37" s="72"/>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="73"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="57"/>
     </row>
     <row r="38" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
@@ -16924,15 +16924,15 @@
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="73"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="57"/>
     </row>
     <row r="39" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
@@ -16978,15 +16978,15 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="72"/>
-      <c r="AA39" s="72"/>
-      <c r="AB39" s="73"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="57"/>
     </row>
     <row r="40" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
@@ -17032,15 +17032,15 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-      <c r="AA40" s="72"/>
-      <c r="AB40" s="73"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
+      <c r="AA40" s="56"/>
+      <c r="AB40" s="57"/>
     </row>
     <row r="41" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
@@ -17086,15 +17086,15 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
-      <c r="X41" s="72"/>
-      <c r="Y41" s="72"/>
-      <c r="Z41" s="72"/>
-      <c r="AA41" s="72"/>
-      <c r="AB41" s="73"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="56"/>
+      <c r="Z41" s="56"/>
+      <c r="AA41" s="56"/>
+      <c r="AB41" s="57"/>
     </row>
     <row r="42" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
@@ -17140,15 +17140,15 @@
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="72"/>
-      <c r="Y42" s="72"/>
-      <c r="Z42" s="72"/>
-      <c r="AA42" s="72"/>
-      <c r="AB42" s="73"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="56"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="56"/>
+      <c r="X42" s="56"/>
+      <c r="Y42" s="56"/>
+      <c r="Z42" s="56"/>
+      <c r="AA42" s="56"/>
+      <c r="AB42" s="57"/>
     </row>
     <row r="43" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
@@ -17194,15 +17194,15 @@
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="72"/>
-      <c r="X43" s="72"/>
-      <c r="Y43" s="72"/>
-      <c r="Z43" s="72"/>
-      <c r="AA43" s="72"/>
-      <c r="AB43" s="73"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56"/>
+      <c r="Y43" s="56"/>
+      <c r="Z43" s="56"/>
+      <c r="AA43" s="56"/>
+      <c r="AB43" s="57"/>
     </row>
     <row r="44" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
@@ -17248,15 +17248,15 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="72"/>
-      <c r="Z44" s="72"/>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="73"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="56"/>
+      <c r="AA44" s="56"/>
+      <c r="AB44" s="57"/>
     </row>
     <row r="45" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
@@ -17302,15 +17302,15 @@
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="72"/>
-      <c r="X45" s="72"/>
-      <c r="Y45" s="72"/>
-      <c r="Z45" s="72"/>
-      <c r="AA45" s="72"/>
-      <c r="AB45" s="73"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="56"/>
+      <c r="Z45" s="56"/>
+      <c r="AA45" s="56"/>
+      <c r="AB45" s="57"/>
     </row>
     <row r="46" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
@@ -17356,15 +17356,15 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="72"/>
-      <c r="X46" s="72"/>
-      <c r="Y46" s="72"/>
-      <c r="Z46" s="72"/>
-      <c r="AA46" s="72"/>
-      <c r="AB46" s="73"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="56"/>
+      <c r="AB46" s="57"/>
     </row>
     <row r="47" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
@@ -17410,15 +17410,15 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="72"/>
-      <c r="X47" s="72"/>
-      <c r="Y47" s="72"/>
-      <c r="Z47" s="72"/>
-      <c r="AA47" s="72"/>
-      <c r="AB47" s="73"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="56"/>
+      <c r="AA47" s="56"/>
+      <c r="AB47" s="57"/>
     </row>
     <row r="48" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
@@ -17464,15 +17464,15 @@
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
       <c r="S48" s="15"/>
-      <c r="T48" s="71"/>
-      <c r="U48" s="72"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="72"/>
-      <c r="X48" s="72"/>
-      <c r="Y48" s="72"/>
-      <c r="Z48" s="72"/>
-      <c r="AA48" s="72"/>
-      <c r="AB48" s="73"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="57"/>
     </row>
     <row r="49" spans="1:28" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
@@ -17518,15 +17518,15 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="71"/>
-      <c r="U49" s="72"/>
-      <c r="V49" s="72"/>
-      <c r="W49" s="72"/>
-      <c r="X49" s="72"/>
-      <c r="Y49" s="72"/>
-      <c r="Z49" s="72"/>
-      <c r="AA49" s="72"/>
-      <c r="AB49" s="73"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="57"/>
     </row>
     <row r="50" spans="1:28" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
@@ -17536,9 +17536,9 @@
       <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="P51" s="74"/>
-      <c r="Q51" s="74"/>
-      <c r="R51" s="74"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
     </row>
     <row r="53" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="35"/>
@@ -17577,10 +17577,10 @@
     </row>
     <row r="58" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="35"/>
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="77"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="36"/>
       <c r="F58" s="37" t="s">
         <v>79</v>
@@ -18270,11 +18270,42 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="T40:AB40"/>
-    <mergeCell ref="T39:AB39"/>
-    <mergeCell ref="T38:AB38"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B7:AB7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T36:AB36"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B16:AB16"/>
+    <mergeCell ref="B33:AB33"/>
+    <mergeCell ref="T34:AB34"/>
+    <mergeCell ref="T35:AB35"/>
     <mergeCell ref="T37:AB37"/>
     <mergeCell ref="T49:AB49"/>
     <mergeCell ref="T48:AB48"/>
@@ -18285,42 +18316,11 @@
     <mergeCell ref="T43:AB43"/>
     <mergeCell ref="T42:AB42"/>
     <mergeCell ref="T41:AB41"/>
-    <mergeCell ref="T36:AB36"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B16:AB16"/>
-    <mergeCell ref="B33:AB33"/>
-    <mergeCell ref="T34:AB34"/>
-    <mergeCell ref="T35:AB35"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B7:AB7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="T40:AB40"/>
+    <mergeCell ref="T39:AB39"/>
+    <mergeCell ref="T38:AB38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14" xr:uid="{00000000-0002-0000-0500-000003000000}">
